--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_12_17.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_12_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>154664.2784763789</v>
+        <v>152101.2581404743</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>106.5908076132626</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>10.76127025329212</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,10 +710,10 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>25.97703065131776</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -722,10 +722,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -820,22 +820,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>97.84262128421162</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
@@ -874,16 +874,16 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>35.33415019398308</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>301.8085155225666</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -905,16 +905,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,16 +944,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>233.4716947511263</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1060,19 +1060,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>161.8015669322321</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,19 +1099,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>22.45878741526853</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,25 +1130,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>286.5888679426061</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>72.01333343395913</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1190,13 +1190,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1288,22 +1288,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>55.5563590181826</v>
       </c>
       <c r="V10" t="n">
-        <v>197.4147107719974</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1385,7 +1385,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>81.27859867330056</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>4.019807611472247</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1768,19 +1768,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>9.146142788174922</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2002,19 +2002,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>57.24347904696366</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187861</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>103.1686991936192</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>58.24570521548602</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2476,22 +2476,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>121.8000472740347</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2555,7 +2555,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710062</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2713,10 +2713,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2725,13 +2725,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833816</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2950,22 +2950,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3092,7 +3092,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.7311006784681</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3190,19 +3190,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428169</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3427,19 +3427,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3664,19 +3664,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3721,7 +3721,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>229.2938944146487</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3901,22 +3901,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>87.21471514852939</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3961,7 +3961,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4138,19 +4138,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1340.969313348498</v>
+        <v>527.8767859460538</v>
       </c>
       <c r="C2" t="n">
-        <v>1340.969313348498</v>
+        <v>158.9142690056421</v>
       </c>
       <c r="D2" t="n">
-        <v>1340.969313348498</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="E2" t="n">
-        <v>955.1810607502537</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F2" t="n">
-        <v>544.1951559606462</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G2" t="n">
-        <v>128.490405684935</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
         <v>187.5281822362819</v>
@@ -4358,22 +4358,22 @@
         <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2411.400696026305</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
-        <v>2411.400696026305</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>2080.337808682734</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>1727.56915341262</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X2" t="n">
-        <v>1727.56915341262</v>
+        <v>918.0161179218655</v>
       </c>
       <c r="Y2" t="n">
-        <v>1727.56915341262</v>
+        <v>527.8767859460538</v>
       </c>
     </row>
     <row r="3">
@@ -4383,46 +4383,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182518</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057898</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
         <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310614</v>
+        <v>298.3188265310615</v>
       </c>
       <c r="L3" t="n">
-        <v>593.0223835625332</v>
+        <v>846.3061319081668</v>
       </c>
       <c r="M3" t="n">
-        <v>956.2844025217532</v>
+        <v>1480.485115687205</v>
       </c>
       <c r="N3" t="n">
-        <v>1343.569531118698</v>
+        <v>1867.770244284151</v>
       </c>
       <c r="O3" t="n">
-        <v>1884.562538506774</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P3" t="n">
         <v>2447.023413292609</v>
@@ -4440,16 +4440,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>770.8338829770711</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="C4" t="n">
-        <v>770.8338829770711</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="D4" t="n">
-        <v>620.7172435647353</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="E4" t="n">
-        <v>620.7172435647353</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F4" t="n">
-        <v>473.8272960668249</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G4" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386097</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312202</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020476</v>
@@ -4495,7 +4495,7 @@
         <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096588</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
@@ -4507,31 +4507,31 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R4" t="n">
-        <v>1537.615189484385</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S4" t="n">
-        <v>1537.615189484385</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T4" t="n">
-        <v>1314.63670867912</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U4" t="n">
-        <v>1025.518371182958</v>
+        <v>825.1371474485143</v>
       </c>
       <c r="V4" t="n">
-        <v>770.8338829770711</v>
+        <v>789.4460866465112</v>
       </c>
       <c r="W4" t="n">
-        <v>770.8338829770711</v>
+        <v>500.0289166095505</v>
       </c>
       <c r="X4" t="n">
-        <v>770.8338829770711</v>
+        <v>272.0393657115332</v>
       </c>
       <c r="Y4" t="n">
-        <v>770.8338829770711</v>
+        <v>51.24678656800311</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>909.233203697441</v>
+        <v>842.8595545333294</v>
       </c>
       <c r="C5" t="n">
-        <v>540.2706867570294</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="D5" t="n">
-        <v>540.2706867570294</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="E5" t="n">
-        <v>540.2706867570294</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="F5" t="n">
-        <v>129.2847819674218</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800309</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
         <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816075</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230816</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.228484740839</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764996</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.250581723849</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400154</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400154</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400154</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U5" t="n">
-        <v>2308.758267664334</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="V5" t="n">
-        <v>1977.695380320763</v>
+        <v>1993.064484834343</v>
       </c>
       <c r="W5" t="n">
-        <v>1977.695380320763</v>
+        <v>1993.064484834343</v>
       </c>
       <c r="X5" t="n">
-        <v>1604.229622059684</v>
+        <v>1619.598726573263</v>
       </c>
       <c r="Y5" t="n">
-        <v>1214.090290083872</v>
+        <v>1229.459394597451</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4620,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057898</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800309</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
         <v>113.5972052500113</v>
@@ -4650,22 +4650,22 @@
         <v>298.3188265310613</v>
       </c>
       <c r="L6" t="n">
-        <v>909.2465818694943</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M6" t="n">
-        <v>1272.508600828714</v>
+        <v>1227.201367341571</v>
       </c>
       <c r="N6" t="n">
-        <v>1659.79372942566</v>
+        <v>1861.38035112061</v>
       </c>
       <c r="O6" t="n">
-        <v>1991.864164601821</v>
+        <v>2193.450786296771</v>
       </c>
       <c r="P6" t="n">
-        <v>2239.046898434118</v>
+        <v>2440.633520129068</v>
       </c>
       <c r="Q6" t="n">
-        <v>2562.339328400155</v>
+        <v>2555.949435236614</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4677,7 +4677,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4686,7 +4686,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>622.6901078854036</v>
+        <v>383.6188956900839</v>
       </c>
       <c r="C7" t="n">
-        <v>453.7539249574967</v>
+        <v>214.682712762177</v>
       </c>
       <c r="D7" t="n">
-        <v>453.7539249574967</v>
+        <v>214.682712762177</v>
       </c>
       <c r="E7" t="n">
-        <v>305.8408313751036</v>
+        <v>214.682712762177</v>
       </c>
       <c r="F7" t="n">
-        <v>305.8408313751036</v>
+        <v>214.682712762177</v>
       </c>
       <c r="G7" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386097</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800309</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020475</v>
@@ -4738,37 +4738,37 @@
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1337.233965749941</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="T7" t="n">
-        <v>1337.233965749941</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U7" t="n">
-        <v>1337.233965749941</v>
+        <v>927.7205539329314</v>
       </c>
       <c r="V7" t="n">
-        <v>1314.548321896134</v>
+        <v>673.0360657270445</v>
       </c>
       <c r="W7" t="n">
-        <v>1025.131151859173</v>
+        <v>383.6188956900839</v>
       </c>
       <c r="X7" t="n">
-        <v>1025.131151859173</v>
+        <v>383.6188956900839</v>
       </c>
       <c r="Y7" t="n">
-        <v>804.3385727156433</v>
+        <v>383.6188956900839</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>728.3028554854568</v>
+        <v>1694.732133680699</v>
       </c>
       <c r="C8" t="n">
-        <v>359.3403385450451</v>
+        <v>1694.732133680699</v>
       </c>
       <c r="D8" t="n">
-        <v>359.3403385450451</v>
+        <v>1336.466435073949</v>
       </c>
       <c r="E8" t="n">
-        <v>69.85663355251364</v>
+        <v>950.6781824757047</v>
       </c>
       <c r="F8" t="n">
-        <v>62.91113280331017</v>
+        <v>539.6922776860972</v>
       </c>
       <c r="G8" t="n">
-        <v>51.2467865680031</v>
+        <v>123.9875274103861</v>
       </c>
       <c r="H8" t="n">
         <v>51.2467865680031</v>
@@ -4802,10 +4802,10 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
         <v>795.7553530872915</v>
@@ -4829,25 +4829,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="V8" t="n">
-        <v>2231.276441056584</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="W8" t="n">
-        <v>1878.50778578647</v>
+        <v>2084.871465656511</v>
       </c>
       <c r="X8" t="n">
-        <v>1505.04202752539</v>
+        <v>2084.871465656511</v>
       </c>
       <c r="Y8" t="n">
-        <v>1114.902695549579</v>
+        <v>1694.732133680699</v>
       </c>
     </row>
     <row r="9">
@@ -4875,7 +4875,7 @@
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057898</v>
       </c>
       <c r="I9" t="n">
         <v>51.2467865680031</v>
@@ -4884,25 +4884,25 @@
         <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>614.5430248380226</v>
+        <v>423.1489515180662</v>
       </c>
       <c r="L9" t="n">
-        <v>909.2465818694943</v>
+        <v>717.8525085495379</v>
       </c>
       <c r="M9" t="n">
-        <v>1272.508600828714</v>
+        <v>1248.170551105041</v>
       </c>
       <c r="N9" t="n">
-        <v>1659.79372942566</v>
+        <v>1635.455679701986</v>
       </c>
       <c r="O9" t="n">
-        <v>1991.864164601821</v>
+        <v>1967.526114878148</v>
       </c>
       <c r="P9" t="n">
-        <v>2239.046898434118</v>
+        <v>2214.708848710445</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>517.189556406156</v>
+        <v>514.036292340028</v>
       </c>
       <c r="C10" t="n">
-        <v>348.2533734782492</v>
+        <v>514.036292340028</v>
       </c>
       <c r="D10" t="n">
-        <v>198.1367340659135</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E10" t="n">
-        <v>198.1367340659135</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F10" t="n">
-        <v>51.2467865680031</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G10" t="n">
         <v>51.2467865680031</v>
@@ -4960,16 +4960,16 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
@@ -4984,28 +4984,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074497</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U10" t="n">
-        <v>1636.446120074497</v>
+        <v>1058.137950582876</v>
       </c>
       <c r="V10" t="n">
-        <v>1437.037321314904</v>
+        <v>803.4534623769887</v>
       </c>
       <c r="W10" t="n">
-        <v>1147.620151277943</v>
+        <v>514.036292340028</v>
       </c>
       <c r="X10" t="n">
-        <v>919.6306003799259</v>
+        <v>514.036292340028</v>
       </c>
       <c r="Y10" t="n">
-        <v>698.8380212363958</v>
+        <v>514.036292340028</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5112,22 +5112,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="M12" t="n">
-        <v>1072.713683962606</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N12" t="n">
         <v>1344.266747951538</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>680.448174698413</v>
+        <v>576.8388927589092</v>
       </c>
       <c r="C13" t="n">
-        <v>680.448174698413</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D13" t="n">
-        <v>530.3315352860773</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E13" t="n">
-        <v>382.4184417036842</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>235.5284942057738</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2442.902671851501</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2260.047837506405</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>2040.446372529346</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1751.371145873544</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1496.686657667657</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1207.269487630696</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614387</v>
+        <v>979.2799367326791</v>
       </c>
       <c r="Y13" t="n">
-        <v>762.5477693179085</v>
+        <v>758.4873575891489</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
         <v>1948.813509611463</v>
@@ -5267,61 +5267,61 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349511</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M15" t="n">
-        <v>1520.445529061503</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N15" t="n">
-        <v>2148.04349261611</v>
+        <v>1815.886107649656</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2367.795837888943</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2367.795837888943</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>580.8993044876643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>411.9631215597574</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>411.9631215597574</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E16" t="n">
-        <v>411.9631215597574</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5452,34 +5452,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853356</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580256</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580256</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.10824923516</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258101</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602299</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396412</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359451</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614341</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>762.547769317904</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516144</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>763.7541388327652</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>555.8158034133954</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1683.601903741513</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1394.184733704552</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1166.195182806535</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>945.4026036630049</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5729,70 +5729,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2148.04349261611</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>695.5020655703109</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>526.5658826424041</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>376.4492432300683</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>376.4492432300683</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F22" t="n">
-        <v>376.4492432300683</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5966,28 +5966,28 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362692</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
@@ -6008,28 +6008,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,22 +6060,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N24" t="n">
         <v>1307.627092998424</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6175,22 +6175,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
         <v>1948.813509611463</v>
@@ -6215,28 +6215,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6245,31 +6245,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6297,25 +6297,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O27" t="n">
         <v>1859.536823237711</v>
@@ -6361,25 +6361,25 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6443,13 +6443,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6458,25 +6458,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>1366.386875345992</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1918.296605585279</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2341.919755080347</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6598,19 +6598,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6692,7 +6692,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192599</v>
@@ -6713,7 +6713,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6725,19 +6725,19 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
         <v>3094.515198591808</v>
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6838,22 +6838,22 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6923,16 +6923,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111715</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M36" t="n">
-        <v>691.1951506745238</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N36" t="n">
-        <v>1318.79311422913</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7075,16 +7075,16 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7151,28 +7151,28 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168624</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
@@ -7193,19 +7193,19 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
         <v>3820.749612123003</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,25 +7245,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797189</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O39" t="n">
         <v>1859.536823237711</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7369,13 +7369,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7397,22 +7397,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7488,28 +7488,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2530.951795518647</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>741.8431516380886</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>572.9069687101817</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7609,10 +7609,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1144.284195611858</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>923.4916164683283</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7634,22 +7634,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7682,13 +7682,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7722,28 +7722,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1465.200520057987</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
         <v>2516.421633107662</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8061,25 +8061,25 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>255.8421700460945</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>273.6534998179983</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>211.0329012241554</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154988</v>
+        <v>20.93778120154985</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8298,13 +8298,13 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>319.4183821282438</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>273.6534998179984</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>249.387732507165</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -8313,10 +8313,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.9377812015499</v>
+        <v>27.39221874048003</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8532,13 +8532,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>193.3273467878349</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>168.7434581780637</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8553,7 +8553,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.9377812015499</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9407,7 +9407,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -9644,7 +9644,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -10595,7 +10595,7 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -22553,19 +22553,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22598,7 +22598,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>180.681154328916</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -22610,10 +22610,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22711,7 +22711,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>129.3141767695006</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -22723,7 +22723,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23413,25 +23413,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>98.55338150863673</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>62.35543909864944</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23656,19 +23656,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>136.2749052347563</v>
+        <v>45.44677382459309</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23744,7 +23744,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>110.0033420516642</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465709</v>
+        <v>43.26526345294992</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>107.2784330767828</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24364,22 +24364,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>45.44677382459312</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24415,7 +24415,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24601,10 +24601,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24613,13 +24613,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24838,22 +24838,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>43.2652634529499</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -25078,19 +25078,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>57.2291039219422</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25315,19 +25315,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>45.44677382459309</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25552,19 +25552,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25609,7 +25609,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>61.40075786968296</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>45.44677382459309</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25849,7 +25849,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26026,19 +26026,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26311,31 +26311,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>317255.8761406861</v>
+        <v>317255.8761406863</v>
       </c>
       <c r="C2" t="n">
-        <v>348942.7521923202</v>
+        <v>348942.7521923203</v>
       </c>
       <c r="D2" t="n">
-        <v>348942.7521923202</v>
+        <v>348942.7521923204</v>
       </c>
       <c r="E2" t="n">
+        <v>343037.3048682528</v>
+      </c>
+      <c r="F2" t="n">
+        <v>343037.3048682528</v>
+      </c>
+      <c r="G2" t="n">
+        <v>343037.3048682527</v>
+      </c>
+      <c r="H2" t="n">
+        <v>343037.3048682528</v>
+      </c>
+      <c r="I2" t="n">
         <v>343037.3048682529</v>
       </c>
-      <c r="F2" t="n">
-        <v>343037.3048682527</v>
-      </c>
-      <c r="G2" t="n">
-        <v>343037.3048682525</v>
-      </c>
-      <c r="H2" t="n">
-        <v>343037.3048682526</v>
-      </c>
-      <c r="I2" t="n">
-        <v>343037.3048682526</v>
-      </c>
       <c r="J2" t="n">
-        <v>343037.3048682529</v>
+        <v>343037.3048682528</v>
       </c>
       <c r="K2" t="n">
         <v>343037.3048682526</v>
@@ -26347,13 +26347,13 @@
         <v>343037.3048682527</v>
       </c>
       <c r="N2" t="n">
-        <v>343037.3048682529</v>
+        <v>343037.3048682527</v>
       </c>
       <c r="O2" t="n">
         <v>343037.3048682527</v>
       </c>
       <c r="P2" t="n">
-        <v>343037.3048682527</v>
+        <v>343037.3048682528</v>
       </c>
     </row>
     <row r="3">
@@ -26369,19 +26369,19 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245458</v>
+        <v>507485.4416245457</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.22694927995326e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289268</v>
+        <v>132607.2937289267</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.074904503184371e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>91763.11654919862</v>
+        <v>91763.1165491986</v>
       </c>
       <c r="C4" t="n">
-        <v>134318.0002618638</v>
+        <v>134318.0002618637</v>
       </c>
       <c r="D4" t="n">
         <v>134318.0002618638</v>
@@ -26430,25 +26430,25 @@
         <v>8117.312426731974</v>
       </c>
       <c r="G4" t="n">
-        <v>8117.312426731975</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="H4" t="n">
-        <v>8117.312426731985</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="I4" t="n">
-        <v>8117.312426731985</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="J4" t="n">
+        <v>8117.312426732035</v>
+      </c>
+      <c r="K4" t="n">
+        <v>8117.312426731998</v>
+      </c>
+      <c r="L4" t="n">
         <v>8117.312426731974</v>
       </c>
-      <c r="K4" t="n">
-        <v>8117.312426731974</v>
-      </c>
-      <c r="L4" t="n">
-        <v>8117.312426732015</v>
-      </c>
       <c r="M4" t="n">
-        <v>8117.312426731987</v>
+        <v>8117.312426731982</v>
       </c>
       <c r="N4" t="n">
         <v>8117.312426731974</v>
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="C5" t="n">
         <v>92937.7724398447</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-982196.7964242769</v>
+        <v>-982383.1898128161</v>
       </c>
       <c r="C6" t="n">
+        <v>121686.9794906122</v>
+      </c>
+      <c r="D6" t="n">
         <v>121686.9794906118</v>
       </c>
-      <c r="D6" t="n">
-        <v>121686.9794906117</v>
-      </c>
       <c r="E6" t="n">
-        <v>-273687.979006932</v>
+        <v>-273722.7169323677</v>
       </c>
       <c r="F6" t="n">
-        <v>233797.4626176136</v>
+        <v>233762.724692178</v>
       </c>
       <c r="G6" t="n">
-        <v>233797.4626176133</v>
+        <v>233762.7246921779</v>
       </c>
       <c r="H6" t="n">
-        <v>233797.4626176137</v>
+        <v>233762.7246921779</v>
       </c>
       <c r="I6" t="n">
-        <v>233797.4626176135</v>
+        <v>233762.7246921781</v>
       </c>
       <c r="J6" t="n">
-        <v>66192.28480763132</v>
+        <v>66157.54688219547</v>
       </c>
       <c r="K6" t="n">
-        <v>233797.4626176135</v>
+        <v>233762.7246921778</v>
       </c>
       <c r="L6" t="n">
-        <v>233797.4626176137</v>
+        <v>233762.724692178</v>
       </c>
       <c r="M6" t="n">
-        <v>101190.1688886869</v>
+        <v>101155.4309632512</v>
       </c>
       <c r="N6" t="n">
-        <v>233797.4626176138</v>
+        <v>233762.7246921779</v>
       </c>
       <c r="O6" t="n">
-        <v>233797.4626176136</v>
+        <v>233762.7246921779</v>
       </c>
       <c r="P6" t="n">
-        <v>233797.4626176136</v>
+        <v>233762.7246921778</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>934.0648921175394</v>
+      </c>
+      <c r="C3" t="n">
+        <v>934.0648921175391</v>
+      </c>
+      <c r="D3" t="n">
         <v>934.0648921175393</v>
-      </c>
-      <c r="C3" t="n">
-        <v>934.0648921175392</v>
-      </c>
-      <c r="D3" t="n">
-        <v>934.0648921175392</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000386</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
         <v>640.5848321000387</v>
@@ -26805,10 +26805,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26823,7 +26823,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26957,22 +26957,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241345</v>
+        <v>433.9106082241344</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27027,13 +27027,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000385</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996099</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27051,7 +27051,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
   </sheetData>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27273,7 +27273,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
   </sheetData>
@@ -27376,25 +27376,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>248.0922340074204</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>290.2572823091132</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27433,7 +27433,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27540,19 +27540,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>17.11978587706855</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27582,10 +27582,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>3.714951135362</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27594,16 +27594,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>216.8034931298449</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>80.92532614091402</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27625,16 +27625,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,16 +27664,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>94.2805637190086</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27780,19 +27780,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>4.50503311257205</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,19 +27819,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>229.6788559085595</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>95.34150212965568</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>229.0052191284462</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
@@ -27910,13 +27910,13 @@
         <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,22 +28008,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>147.2515091551288</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>230.670795103018</v>
       </c>
       <c r="V10" t="n">
-        <v>54.72293255183064</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28327,7 +28327,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -28524,7 +28524,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>-2.260551021544925e-12</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29275,7 +29275,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29812,7 +29812,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -31045,28 +31045,28 @@
         <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J2" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L2" t="n">
         <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O2" t="n">
         <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q2" t="n">
         <v>405.5015080147052</v>
@@ -31081,7 +31081,7 @@
         <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,7 +31118,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H3" t="n">
         <v>19.40387634380021</v>
@@ -31130,10 +31130,10 @@
         <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M3" t="n">
         <v>509.0653662040589</v>
@@ -31142,7 +31142,7 @@
         <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P3" t="n">
         <v>383.6539365378626</v>
@@ -31154,10 +31154,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U3" t="n">
         <v>0.1321789941675764</v>
@@ -31203,19 +31203,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L4" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N4" t="n">
         <v>257.7559726067959</v>
@@ -31230,16 +31230,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31279,43 +31279,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31358,10 +31358,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31370,7 +31370,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
         <v>509.0653662040588</v>
@@ -31379,25 +31379,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,7 +31440,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31455,10 +31455,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31470,13 +31470,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,7 +31513,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
         <v>38.45624955336179</v>
@@ -31528,16 +31528,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N8" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
         <v>539.9786897190645</v>
@@ -31549,7 +31549,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
         <v>16.4376645838976</v>
@@ -31598,7 +31598,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31610,16 +31610,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
         <v>256.4624964168761</v>
@@ -31677,7 +31677,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31704,7 +31704,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S10" t="n">
         <v>29.35413767523479</v>
@@ -31713,7 +31713,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31838,19 +31838,19 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>430.400187030115</v>
       </c>
       <c r="M12" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>405.6377363145776</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437243</v>
@@ -32072,13 +32072,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
@@ -32090,16 +32090,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>290.1088399635148</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>399.4395445221152</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32546,10 +32546,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
@@ -32561,19 +32561,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>551.7051287319853</v>
+        <v>332.1692388321076</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32783,22 +32783,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>263.7590256391496</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
@@ -33026,19 +33026,19 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>454.5879800486398</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214698</v>
@@ -33205,7 +33205,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
         <v>125.31755462929</v>
@@ -33257,34 +33257,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>316.2462973459355</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33494,10 +33494,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
@@ -33506,22 +33506,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>454.5879800486398</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33731,22 +33731,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>422.1299181110993</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
@@ -33758,7 +33758,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33971,22 +33971,22 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>303.4297552732313</v>
       </c>
       <c r="P39" t="n">
         <v>561.8765786214698</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34208,31 +34208,31 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>168.0123247135882</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34381,7 +34381,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
         <v>790.8204499236507</v>
@@ -34442,31 +34442,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>536.8001439125376</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
@@ -34699,28 +34699,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L2" t="n">
         <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O2" t="n">
         <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q2" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34778,22 +34778,22 @@
         <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>186.5874962434849</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>553.5225306839448</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820406</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="N3" t="n">
         <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>546.4575832202785</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>568.1422977634695</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
         <v>116.4807223308546</v>
@@ -34854,7 +34854,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
@@ -34863,7 +34863,7 @@
         <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N4" t="n">
         <v>301.8881449860245</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,31 +35012,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091742</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K6" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>617.098742766094</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820405</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="O6" t="n">
         <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>6.454437538930121</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,10 +35091,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
         <v>278.0112915831069</v>
@@ -35103,7 +35103,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
         <v>262.6644876295069</v>
@@ -35112,7 +35112,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35173,19 +35173,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N8" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
         <v>308.745693963795</v>
@@ -35194,7 +35194,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35252,19 +35252,19 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>379.9148430313197</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
         <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820405</v>
+        <v>535.6747904601043</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
         <v>249.6795291235323</v>
@@ -35273,7 +35273,7 @@
         <v>326.5580100667037</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,13 +35328,13 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K10" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
@@ -35343,13 +35343,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35486,19 +35486,19 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>291.8458072502408</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>274.2960242312443</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992799</v>
@@ -35720,13 +35720,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
@@ -35738,16 +35738,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>150.1270658774933</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35820,7 +35820,7 @@
         <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066204</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
         <v>120.4022572998984</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>265.4651371077849</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36127,7 +36127,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
@@ -36194,10 +36194,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
@@ -36209,19 +36209,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>409.1088842875408</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36364,7 +36364,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
@@ -36431,22 +36431,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>132.4173135558163</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
@@ -36674,19 +36674,19 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>311.9917356041954</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071395</v>
@@ -36853,7 +36853,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>176.264523259914</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37142,10 +37142,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
@@ -37154,22 +37154,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>311.9917356041954</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37315,7 +37315,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O35" t="n">
         <v>696.488651224316</v>
@@ -37379,22 +37379,22 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>283.5755383312251</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
@@ -37406,7 +37406,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37619,22 +37619,22 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>160.8335108287869</v>
       </c>
       <c r="P39" t="n">
         <v>427.9021712071395</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>22.33282074962425</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38029,7 +38029,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
@@ -38090,31 +38090,31 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>394.6661099905193</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>37.00975247789211</v>
